--- a/프로젝트/파이썬/보고서 매크로/취소자.xlsx
+++ b/프로젝트/파이썬/보고서 매크로/취소자.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enoz1f05\Desktop\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\박주형\01.업무용 파일\2023\2023 북구 온라인 SW 코딩 교실 운영\2기\결과보고서\재균씨 전달\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>월수1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,16 +182,52 @@
     <t>화목25</t>
   </si>
   <si>
-    <t>김재균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김균재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>균김재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>이감송</t>
+  </si>
+  <si>
+    <t>석채연</t>
+  </si>
+  <si>
+    <t>이승민</t>
+  </si>
+  <si>
+    <t>엄채원</t>
+  </si>
+  <si>
+    <t>전서현</t>
+  </si>
+  <si>
+    <t>문성분</t>
+  </si>
+  <si>
+    <t>이나은</t>
+  </si>
+  <si>
+    <t>윤준수</t>
+  </si>
+  <si>
+    <t>서정빈</t>
+  </si>
+  <si>
+    <t>권다현</t>
+  </si>
+  <si>
+    <t>김재헌</t>
+  </si>
+  <si>
+    <t>김규리</t>
+  </si>
+  <si>
+    <t>톰슨세린</t>
+  </si>
+  <si>
+    <t>송혜리</t>
+  </si>
+  <si>
+    <t>이하은</t>
+  </si>
+  <si>
+    <t>권예강</t>
   </si>
 </sst>
 </file>
@@ -521,11 +557,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX2"/>
+  <dimension ref="A1:AX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -682,14 +716,57 @@
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
+      <c r="P2" t="s">
         <v>52</v>
+      </c>
+      <c r="R2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AF4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
